--- a/assets/uploads/john (2)1.xlsx
+++ b/assets/uploads/john (2)1.xlsx
@@ -546,7 +546,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="4">
-        <v>56428007401</v>
+        <v>9428007401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
